--- a/medicine/Pharmacie/Siméprévir/Siméprévir.xlsx
+++ b/medicine/Pharmacie/Siméprévir/Siméprévir.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sim%C3%A9pr%C3%A9vir</t>
+          <t>Siméprévir</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le siméprévir, ou TMC435350, est un inhibiteur de la protéase NS3-4A du virus de l'hépatite C chronique de génotype 1 et 4, commercialisé en France sous le nom de Olysio par les laboratoires Janssen-Cilag depuis le 14 mai 2014[2],[3].
+Le siméprévir, ou TMC435350, est un inhibiteur de la protéase NS3-4A du virus de l'hépatite C chronique de génotype 1 et 4, commercialisé en France sous le nom de Olysio par les laboratoires Janssen-Cilag depuis le 14 mai 2014,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sim%C3%A9pr%C3%A9vir</t>
+          <t>Siméprévir</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,9 +524,11 @@
           <t>Mode d'action</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il s'agit d'un inhibiteur de la protéase NS3/4A[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il s'agit d'un inhibiteur de la protéase NS3/4A.
 </t>
         </is>
       </c>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sim%C3%A9pr%C3%A9vir</t>
+          <t>Siméprévir</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,9 +557,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Europe, les conditions d'usage du siméprévir sont définies par le rapport européen public d'évaluation (EPAR) relatif à Olysio[5].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Europe, les conditions d'usage du siméprévir sont définies par le rapport européen public d'évaluation (EPAR) relatif à Olysio.
 </t>
         </is>
       </c>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sim%C3%A9pr%C3%A9vir</t>
+          <t>Siméprévir</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,10 +590,12 @@
           <t>Efficacité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dans l'hépatite C chronique de génotype 1, en prise orale en association avec de l'interféron pégylé 2a[6] ou 2b[7] et de la ribavirine, il augmente très sensiblement le taux de réponse viral, tout en étant bien toléré, qu'il soit donné en première intention ou en cas de rechute après un traitement conventionnel[8].
-Dans les autres génotypes, il conserve une activité antivirale, à l'exception du génotype 3[9].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dans l'hépatite C chronique de génotype 1, en prise orale en association avec de l'interféron pégylé 2a ou 2b et de la ribavirine, il augmente très sensiblement le taux de réponse viral, tout en étant bien toléré, qu'il soit donné en première intention ou en cas de rechute après un traitement conventionnel.
+Dans les autres génotypes, il conserve une activité antivirale, à l'exception du génotype 3.
 </t>
         </is>
       </c>
